--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -1018,7 +1018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="19">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>Global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minopenroomcount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开服渠道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1014,842 +1026,1061 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="44.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="2" customWidth="1"/>
-    <col min="11" max="12" width="17.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="44.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="2" customWidth="1"/>
+    <col min="12" max="13" width="17.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="8"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="E4" s="16"/>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="18">
+      <c r="E5" s="16"/>
+      <c r="F5" s="18">
         <v>2592000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="19">
+      <c r="E6" s="16"/>
+      <c r="F6" s="19">
         <v>120000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19">
+      <c r="E9" s="16"/>
+      <c r="F9" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="16">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="19">
+      <c r="F10" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16">
+      <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="F11" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="16">
+      <c r="E12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="F12" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16">
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16">
+      <c r="E14" s="16">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="F14" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16">
+      <c r="E15" s="16">
         <v>3</v>
       </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="16">
+      <c r="E16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="16">
+      <c r="E17" s="16">
         <v>2</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="16">
+      <c r="E18" s="16">
         <v>3</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19">
+      <c r="E19" s="16"/>
+      <c r="F19" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="19">
+      <c r="E20" s="16"/>
+      <c r="F20" s="19">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19">
+      <c r="E21" s="16"/>
+      <c r="F21" s="19">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="19">
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="19">
-        <v>2592000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="16">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="19">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="19">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="19">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="19">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="19">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="19">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="19">
+      <c r="E45" s="16"/>
+      <c r="F45" s="19">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="16">
-        <v>1</v>
-      </c>
-      <c r="E43" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="16">
-        <v>2</v>
-      </c>
-      <c r="E44" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="16">
-        <v>3</v>
-      </c>
-      <c r="E45" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="16">
-        <v>4</v>
-      </c>
-      <c r="E46" s="19">
+      <c r="E46" s="16">
+        <v>1</v>
+      </c>
+      <c r="F46" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
       <c r="B47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="16">
+        <v>2</v>
+      </c>
+      <c r="F47" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
+      <c r="B48" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="16">
+        <v>3</v>
+      </c>
+      <c r="F48" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="16">
+        <v>4</v>
+      </c>
+      <c r="F49" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="19">
+      <c r="E50" s="16"/>
+      <c r="F50" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10" t="s">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15">
+      <c r="E51" s="16"/>
+      <c r="F51" s="15">
         <v>604800</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="19"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="19"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="10"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="19"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="10"/>
       <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="21"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="22"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="21"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="22"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="21"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="22"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="19"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B62" s="21"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="21"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B63" s="21"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="21"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B64" s="21"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="21"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="21"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="22"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="21"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="21"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="22"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="21"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="21"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="22"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="21"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="21"/>
-      <c r="E68" s="23"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="21"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="21"/>
-      <c r="E69" s="23"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E70" s="23"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E71" s="23"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E72" s="23"/>
+      <c r="C69" s="21"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F75" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="100">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1028,9 +1028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,134 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>刘小兵</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>刘小兵:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 内部
+2 微信
+3 steam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>刘小兵:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 调试
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2 研发</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 测试
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 审核
+8 正式
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="130">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -468,12 +590,174 @@
     <t>开服渠道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>是否开启激活功能 - 内网渠道不需要激活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirtype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表类型  1 所有服务器列表 2 直接随机一个服务器登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表类型  内部 研发, 返回所有列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场最小开启阵容数量  正式环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证服务器地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlescoreparam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authurl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:7777/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证服务器地址 内网 研发地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.10.230:7777/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活码获取接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活激活码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台appid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台appkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cHPNaYS27Ct4JZVF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.9:8080/v1/server/getActivationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.9:8080/v1/server/verifyActivationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.laywoodgames.com/v1/server/verifyActivationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctivationcode</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyactivationcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctivationcode</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyactivationcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platappid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platappkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证服务器地址 steam 正式地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.laywoodgames.com/v1/server/getActivationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://steamauth.laywoodgames.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -519,8 +803,36 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +863,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -576,12 +906,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,9 +949,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -636,9 +966,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -654,9 +981,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1025,38 +1422,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="44.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="2" customWidth="1"/>
-    <col min="12" max="13" width="17.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="60.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="17.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,23 +1462,26 @@
         <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1088,1004 +1489,1355 @@
         <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G3" s="8"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11" t="s">
+    </row>
+    <row r="8" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18">
+      <c r="F11" s="34"/>
+      <c r="G11" s="44">
         <v>2592000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C12" s="32">
+        <v>0</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="19">
+      <c r="F12" s="34"/>
+      <c r="G12" s="35">
         <v>120000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C13" s="32">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="19" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="16">
-        <v>3</v>
-      </c>
-      <c r="F12" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C14" s="10">
         <v>0</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="16">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="29">
+        <v>2</v>
+      </c>
+      <c r="G17" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="29">
+        <v>3</v>
+      </c>
+      <c r="G18" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="29">
+        <v>2</v>
+      </c>
+      <c r="G20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C21" s="27">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="16">
+      <c r="F21" s="29">
         <v>3</v>
       </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14" t="s">
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="16">
+      <c r="F22" s="15">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="16">
-        <v>2</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16">
-        <v>3</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C24" s="10">
         <v>0</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="16">
-        <v>2</v>
-      </c>
-      <c r="F24" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C25" s="10">
         <v>0</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="16">
-        <v>3</v>
-      </c>
-      <c r="F25" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" s="10">
         <v>0</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="19">
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C27" s="10">
         <v>0</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="19">
-        <v>2592000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="19">
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="22">
+        <v>3</v>
+      </c>
+      <c r="D29" s="22">
+        <v>8</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="24">
+        <v>2</v>
+      </c>
+      <c r="G30" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="24">
+        <v>3</v>
+      </c>
+      <c r="G31" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C32" s="10">
         <v>0</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="17">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C33" s="10">
         <v>0</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="17">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C34" s="10">
         <v>0</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="19">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C35" s="10">
         <v>0</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C36" s="10">
         <v>0</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C37" s="10">
         <v>0</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C38" s="10">
         <v>0</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C39" s="10">
         <v>0</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C40" s="10">
         <v>0</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="17">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C41" s="10">
         <v>0</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="19">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C42" s="10">
         <v>0</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C43" s="10">
         <v>0</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="32">
+        <v>0</v>
+      </c>
+      <c r="D45" s="32">
+        <v>0</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="32">
+        <v>0</v>
+      </c>
+      <c r="D46" s="32">
+        <v>0</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="32">
+        <v>0</v>
+      </c>
+      <c r="D47" s="32">
+        <v>0</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="32">
+        <v>0</v>
+      </c>
+      <c r="D48" s="32">
+        <v>0</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="C50" s="32">
+        <v>0</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0</v>
+      </c>
+      <c r="E50" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19">
+      <c r="F50" s="34"/>
+      <c r="G50" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
+    <row r="51" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="10">
-        <v>0</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+      <c r="D51" s="32">
+        <v>0</v>
+      </c>
+      <c r="E51" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="19">
+      <c r="F51" s="34"/>
+      <c r="G51" s="35">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="14" t="s">
+    <row r="52" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="32"/>
+      <c r="B52" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="10">
-        <v>0</v>
-      </c>
-      <c r="D46" s="13" t="s">
+      <c r="C52" s="32">
+        <v>0</v>
+      </c>
+      <c r="D52" s="32">
+        <v>0</v>
+      </c>
+      <c r="E52" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="16">
+      <c r="F52" s="34">
         <v>1</v>
       </c>
-      <c r="F46" s="19">
+      <c r="G52" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="14" t="s">
+    <row r="53" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="32"/>
+      <c r="B53" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="10">
-        <v>0</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="C53" s="32">
+        <v>0</v>
+      </c>
+      <c r="D53" s="32">
+        <v>0</v>
+      </c>
+      <c r="E53" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="16">
+      <c r="F53" s="34">
         <v>2</v>
       </c>
-      <c r="F47" s="19">
+      <c r="G53" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="14" t="s">
+    <row r="54" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="32"/>
+      <c r="B54" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="10">
-        <v>0</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="C54" s="32">
+        <v>0</v>
+      </c>
+      <c r="D54" s="32">
+        <v>0</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="16">
+      <c r="F54" s="34">
         <v>3</v>
       </c>
-      <c r="F48" s="19">
+      <c r="G54" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="14" t="s">
+    <row r="55" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="32"/>
+      <c r="B55" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="10">
-        <v>0</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="C55" s="32">
+        <v>0</v>
+      </c>
+      <c r="D55" s="32">
+        <v>0</v>
+      </c>
+      <c r="E55" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="16">
+      <c r="F55" s="34">
         <v>4</v>
       </c>
-      <c r="F49" s="19">
+      <c r="G55" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="14" t="s">
+    <row r="56" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="32"/>
+      <c r="B56" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="10">
-        <v>0</v>
-      </c>
-      <c r="D50" s="13" t="s">
+      <c r="C56" s="32">
+        <v>0</v>
+      </c>
+      <c r="D56" s="32">
+        <v>0</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="19">
+      <c r="F56" s="34"/>
+      <c r="G56" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
+    <row r="57" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="10">
-        <v>0</v>
-      </c>
-      <c r="D51" s="13" t="s">
+      <c r="C57" s="32">
+        <v>0</v>
+      </c>
+      <c r="D57" s="32">
+        <v>0</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="15">
+      <c r="F57" s="34"/>
+      <c r="G57" s="38">
         <v>604800</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="F71" s="23"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F75" s="23"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="10">
+        <v>3</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="10">
+        <v>0</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="15">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G81" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G58" r:id="rId3"/>
+    <hyperlink ref="G59" r:id="rId4"/>
+    <hyperlink ref="G61" r:id="rId5"/>
+    <hyperlink ref="G60" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="11340" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -750,6 +750,22 @@
   </si>
   <si>
     <t>https://steamauth.laywoodgames.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天的时间间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatinterval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天的内容长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatmaxlength</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1425,9 +1441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1517,568 +1533,559 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42" t="s">
-        <v>112</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="15">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>109</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="32">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="32">
-        <v>0</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="32">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0</v>
-      </c>
-      <c r="D11" s="32">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="44">
-        <v>2592000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0</v>
-      </c>
-      <c r="D12" s="32">
-        <v>0</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35">
-        <v>120000</v>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="39" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
       <c r="B13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="32"/>
+      <c r="B17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="44">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="32">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="C19" s="32">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17">
+      <c r="F21" s="15"/>
+      <c r="G21" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="27">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="C22" s="27">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F22" s="29">
         <v>1</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G22" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="C23" s="27">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F23" s="29">
         <v>2</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G23" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+    <row r="24" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="27">
-        <v>0</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F24" s="29">
         <v>3</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G24" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27" t="s">
+    <row r="25" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="27">
-        <v>0</v>
-      </c>
-      <c r="E19" s="28" t="s">
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F25" s="29">
         <v>1</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G25" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+    <row r="26" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="27">
-        <v>0</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="C26" s="27">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F26" s="29">
         <v>2</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G26" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27" t="s">
+    <row r="27" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="27">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>0</v>
-      </c>
-      <c r="E21" s="28" t="s">
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F27" s="29">
         <v>3</v>
       </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F28" s="15">
         <v>1</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G28" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F29" s="15">
         <v>2</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G29" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="10">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F30" s="15">
         <v>3</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G30" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17">
+      <c r="F31" s="15"/>
+      <c r="G31" s="17">
         <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="17">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="22">
-        <v>0</v>
-      </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="24">
-        <v>1</v>
-      </c>
-      <c r="G28" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="22">
-        <v>3</v>
-      </c>
-      <c r="D29" s="22">
-        <v>8</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="24">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="22">
-        <v>0</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="24">
-        <v>2</v>
-      </c>
-      <c r="G30" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="22">
-        <v>0</v>
-      </c>
-      <c r="D31" s="22">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="24">
-        <v>3</v>
-      </c>
-      <c r="G31" s="25">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C32" s="10">
         <v>0</v>
@@ -2087,17 +2094,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="17">
-        <v>7200000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C33" s="10">
         <v>0</v>
@@ -2106,101 +2113,101 @@
         <v>0</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="17">
-        <v>2592000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="17">
-        <v>500</v>
+      <c r="G34" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="22">
+        <v>3</v>
+      </c>
+      <c r="D35" s="22">
+        <v>8</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="24">
+        <v>2</v>
+      </c>
+      <c r="G36" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="24">
+        <v>3</v>
+      </c>
+      <c r="G37" s="25">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C38" s="10">
         <v>0</v>
@@ -2209,19 +2216,17 @@
         <v>0</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F38" s="15"/>
       <c r="G38" s="17">
-        <v>1000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C39" s="10">
         <v>0</v>
@@ -2230,19 +2235,17 @@
         <v>0</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>55</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F39" s="15"/>
       <c r="G39" s="17">
-        <v>-2</v>
+        <v>2592000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C40" s="10">
         <v>0</v>
@@ -2251,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G40" s="17">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C41" s="10">
         <v>0</v>
@@ -2272,17 +2275,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G41" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C42" s="10">
         <v>0</v>
@@ -2291,17 +2296,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="G42" s="17">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C43" s="10">
         <v>0</v>
@@ -2310,150 +2317,158 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="G43" s="17">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="17">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="17">
+      <c r="F50" s="15"/>
+      <c r="G50" s="17">
         <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="32">
-        <v>0</v>
-      </c>
-      <c r="D45" s="32">
-        <v>0</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="32">
-        <v>0</v>
-      </c>
-      <c r="D46" s="32">
-        <v>0</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="32">
-        <v>0</v>
-      </c>
-      <c r="D47" s="32">
-        <v>0</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="32">
-        <v>0</v>
-      </c>
-      <c r="D48" s="32">
-        <v>0</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="32">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32">
-        <v>0</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="32">
-        <v>0</v>
-      </c>
-      <c r="D50" s="32">
-        <v>0</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35">
-        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="32"/>
       <c r="B51" s="32" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C51" s="32">
         <v>0</v>
@@ -2462,17 +2477,17 @@
         <v>0</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="35">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="32"/>
-      <c r="B52" s="37" t="s">
-        <v>78</v>
+      <c r="B52" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="C52" s="32">
         <v>0</v>
@@ -2481,19 +2496,17 @@
         <v>0</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="34">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F52" s="34"/>
       <c r="G52" s="35">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32"/>
-      <c r="B53" s="37" t="s">
-        <v>79</v>
+      <c r="B53" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="C53" s="32">
         <v>0</v>
@@ -2502,19 +2515,17 @@
         <v>0</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="34">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F53" s="34"/>
       <c r="G53" s="35">
-        <v>5</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
-      <c r="B54" s="37" t="s">
-        <v>80</v>
+      <c r="B54" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="C54" s="32">
         <v>0</v>
@@ -2523,19 +2534,17 @@
         <v>0</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="34">
-        <v>3</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F54" s="34"/>
       <c r="G54" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32"/>
-      <c r="B55" s="37" t="s">
-        <v>81</v>
+      <c r="B55" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="C55" s="32">
         <v>0</v>
@@ -2544,19 +2553,17 @@
         <v>0</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="34">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F55" s="34"/>
       <c r="G55" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="32"/>
-      <c r="B56" s="37" t="s">
-        <v>87</v>
+      <c r="B56" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="C56" s="32">
         <v>0</v>
@@ -2565,162 +2572,195 @@
         <v>0</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32"/>
       <c r="B57" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="32">
+        <v>0</v>
+      </c>
+      <c r="D57" s="32">
+        <v>0</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="32"/>
+      <c r="B58" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="32">
+        <v>0</v>
+      </c>
+      <c r="D58" s="32">
+        <v>0</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="34">
+        <v>1</v>
+      </c>
+      <c r="G58" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="32"/>
+      <c r="B59" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="32">
+        <v>0</v>
+      </c>
+      <c r="D59" s="32">
+        <v>0</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="34">
+        <v>2</v>
+      </c>
+      <c r="G59" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="32"/>
+      <c r="B60" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="32">
+        <v>0</v>
+      </c>
+      <c r="D60" s="32">
+        <v>0</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="34">
+        <v>3</v>
+      </c>
+      <c r="G60" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="32"/>
+      <c r="B61" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="32">
+        <v>0</v>
+      </c>
+      <c r="D61" s="32">
+        <v>0</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="34">
+        <v>4</v>
+      </c>
+      <c r="G61" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="32"/>
+      <c r="B62" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="32">
+        <v>0</v>
+      </c>
+      <c r="D62" s="32">
+        <v>0</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="32">
-        <v>0</v>
-      </c>
-      <c r="D57" s="32">
-        <v>0</v>
-      </c>
-      <c r="E57" s="33" t="s">
+      <c r="C63" s="32">
+        <v>0</v>
+      </c>
+      <c r="D63" s="32">
+        <v>0</v>
+      </c>
+      <c r="E63" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="38">
+      <c r="F63" s="34"/>
+      <c r="G63" s="38">
         <v>604800</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="10">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="10">
-        <v>3</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="10">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="10">
-        <v>2</v>
-      </c>
-      <c r="D61" s="10">
-        <v>0</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="10">
-        <v>0</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="15">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="10">
-        <v>0</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
+      <c r="B64" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="16">
+        <v>0</v>
+      </c>
+      <c r="G64" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
+      <c r="B65" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="10">
+        <v>0</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="16">
+        <v>0</v>
+      </c>
+      <c r="G65" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
@@ -2827,13 +2867,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="G58" r:id="rId3"/>
-    <hyperlink ref="G59" r:id="rId4"/>
-    <hyperlink ref="G61" r:id="rId5"/>
-    <hyperlink ref="G60" r:id="rId6"/>
-    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId3"/>
+    <hyperlink ref="G10" r:id="rId4"/>
+    <hyperlink ref="G12" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="14175" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2734,9 +2734,7 @@
       <c r="E64" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="16">
-        <v>0</v>
-      </c>
+      <c r="F64" s="16"/>
       <c r="G64" s="17">
         <v>3</v>
       </c>
@@ -2755,9 +2753,7 @@
       <c r="E65" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="16">
-        <v>0</v>
-      </c>
+      <c r="F65" s="16"/>
       <c r="G65" s="17">
         <v>100</v>
       </c>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="17010" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -766,6 +766,18 @@
   </si>
   <si>
     <t>chatmaxlength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色回调lua脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createrolelua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>./script/game/steam_invite_code.lua</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1439,11 +1451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2758,23 +2770,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="11"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
+    <row r="66" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="22">
+        <v>3</v>
+      </c>
+      <c r="D66" s="22">
+        <v>8</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="11"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B68" s="19"/>
@@ -2836,8 +2856,7 @@
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B77" s="19"/>
@@ -2846,9 +2865,6 @@
       <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
       <c r="G78" s="21"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -2856,9 +2872,6 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G81" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -1454,8 +1454,8 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="19845" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -1453,9 +1453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sgserver\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19845" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="17010" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -663,15 +663,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.9:8080/v1/server/getActivationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://192.168.1.9:8080/v1/server/verifyActivationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.laywoodgames.com/v1/server/verifyActivationCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -778,6 +770,37 @@
   </si>
   <si>
     <t>./script/game/steam_invite_code.lua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报邀请码接口</t>
+  </si>
+  <si>
+    <t>上报邀请码接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitationcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.9:8080/v1/server/getActivationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitationcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.9:8080/v1/server/invitationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.laywoodgames.com/v1/server/verifyActivationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.laywoodgames.com/v1/server/invitationCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1451,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="15">
         <v>10001</v>
@@ -1575,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
@@ -1623,7 +1646,7 @@
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -1636,7 +1659,7 @@
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1651,11 +1674,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="39" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -1670,11 +1693,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -1689,11 +1712,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -1708,55 +1731,55 @@
         <v>0</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="32">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="32">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="32">
-        <v>1</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35">
-        <v>1</v>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
       <c r="B15" s="32" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="C15" s="32">
         <v>0</v>
@@ -1764,37 +1787,37 @@
       <c r="D15" s="32">
         <v>0</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>3</v>
+      <c r="E15" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
       <c r="B16" s="32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C16" s="32">
         <v>1</v>
       </c>
       <c r="D16" s="32">
-        <v>0</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
-      <c r="B17" s="43" t="s">
-        <v>9</v>
+      <c r="B17" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="32">
         <v>0</v>
@@ -1802,136 +1825,132 @@
       <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>8</v>
+      <c r="E17" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="F17" s="34"/>
-      <c r="G17" s="44">
-        <v>2592000</v>
+      <c r="G17" s="35">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
       <c r="B18" s="32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C18" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="32">
         <v>0</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>10</v>
+      <c r="E18" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="32"/>
+      <c r="B19" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="44">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="32">
+        <v>0</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35">
         <v>120000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32" t="s">
+    <row r="21" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="32">
-        <v>0</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33" t="s">
+      <c r="C21" s="32">
+        <v>0</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="17">
+      <c r="F23" s="15"/>
+      <c r="G23" s="17">
         <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="27">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="29">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="27">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="29">
-        <v>2</v>
-      </c>
-      <c r="G23" s="30">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="27">
         <v>0</v>
@@ -1943,7 +1962,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="30">
         <v>10</v>
@@ -1952,7 +1971,7 @@
     <row r="25" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
@@ -1961,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="30">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C26" s="27">
         <v>0</v>
@@ -1982,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="30">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="27">
         <v>0</v>
@@ -2006,58 +2025,58 @@
         <v>14</v>
       </c>
       <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="G27" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="27">
+        <v>0</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="29">
+        <v>2</v>
+      </c>
+      <c r="G28" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="27">
+        <v>0</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="29">
         <v>3</v>
       </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="15">
-        <v>2</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>18</v>
+      <c r="G29" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>51</v>
+      <c r="B30" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="10">
         <v>0</v>
@@ -2065,20 +2084,20 @@
       <c r="D30" s="10">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>15</v>
+      <c r="E30" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="F30" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C31" s="10">
         <v>0</v>
@@ -2086,18 +2105,20 @@
       <c r="D31" s="10">
         <v>0</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="17">
-        <v>6</v>
+      <c r="E31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C32" s="10">
         <v>0</v>
@@ -2105,18 +2126,20 @@
       <c r="D32" s="10">
         <v>0</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="17">
-        <v>300</v>
+      <c r="E32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="15">
+        <v>3</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33" s="10">
         <v>0</v>
@@ -2125,53 +2148,49 @@
         <v>0</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="17">
         <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="22">
-        <v>0</v>
-      </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="24">
-        <v>1</v>
-      </c>
-      <c r="G34" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="22">
-        <v>3</v>
-      </c>
-      <c r="D35" s="22">
-        <v>8</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="24">
-        <v>1</v>
-      </c>
-      <c r="G35" s="25">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
@@ -2186,78 +2205,82 @@
         <v>0</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="F36" s="24">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25">
         <v>2</v>
-      </c>
-      <c r="G36" s="25">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="22"/>
       <c r="B37" s="22" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C37" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="F37" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="25">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="17">
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="17">
-        <v>2592000</v>
+    <row r="38" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="24">
+        <v>2</v>
+      </c>
+      <c r="G38" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="24">
+        <v>3</v>
+      </c>
+      <c r="G39" s="25">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C40" s="10">
         <v>0</v>
@@ -2266,19 +2289,17 @@
         <v>0</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F40" s="15"/>
       <c r="G40" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C41" s="10">
         <v>0</v>
@@ -2287,19 +2308,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F41" s="15"/>
       <c r="G41" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C42" s="10">
         <v>0</v>
@@ -2311,16 +2330,16 @@
         <v>34</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G42" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C43" s="10">
         <v>0</v>
@@ -2329,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G43" s="17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="10">
         <v>0</v>
@@ -2350,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G44" s="17">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C45" s="10">
         <v>0</v>
@@ -2371,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G45" s="17">
-        <v>-2</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C46" s="10">
         <v>0</v>
@@ -2395,16 +2414,16 @@
         <v>39</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G46" s="17">
-        <v>-500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C47" s="10">
         <v>0</v>
@@ -2413,17 +2432,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="G47" s="17">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C48" s="10">
         <v>0</v>
@@ -2432,17 +2453,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="G48" s="17">
-        <v>3</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C49" s="10">
         <v>0</v>
@@ -2451,17 +2474,17 @@
         <v>0</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C50" s="10">
         <v>0</v>
@@ -2470,55 +2493,55 @@
         <v>0</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="17">
         <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="32">
-        <v>0</v>
-      </c>
-      <c r="D51" s="32">
-        <v>0</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="32">
-        <v>0</v>
-      </c>
-      <c r="D52" s="32">
-        <v>0</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35">
-        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32"/>
       <c r="B53" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C53" s="32">
         <v>0</v>
@@ -2527,17 +2550,17 @@
         <v>0</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="35">
-        <v>86400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
       <c r="B54" s="32" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C54" s="32">
         <v>0</v>
@@ -2546,17 +2569,17 @@
         <v>0</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="35">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32"/>
       <c r="B55" s="32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C55" s="32">
         <v>0</v>
@@ -2565,17 +2588,17 @@
         <v>0</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="35">
-        <v>5</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="32"/>
       <c r="B56" s="32" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C56" s="32">
         <v>0</v>
@@ -2584,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="35">
@@ -2594,7 +2617,7 @@
     <row r="57" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32"/>
       <c r="B57" s="32" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C57" s="32">
         <v>0</v>
@@ -2603,17 +2626,17 @@
         <v>0</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="35">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32"/>
-      <c r="B58" s="37" t="s">
-        <v>78</v>
+      <c r="B58" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="C58" s="32">
         <v>0</v>
@@ -2622,19 +2645,17 @@
         <v>0</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="34">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F58" s="34"/>
       <c r="G58" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
-      <c r="B59" s="37" t="s">
-        <v>79</v>
+      <c r="B59" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="C59" s="32">
         <v>0</v>
@@ -2643,19 +2664,17 @@
         <v>0</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="34">
-        <v>2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F59" s="34"/>
       <c r="G59" s="35">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="32"/>
       <c r="B60" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="32">
         <v>0</v>
@@ -2667,7 +2686,7 @@
         <v>77</v>
       </c>
       <c r="F60" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="35">
         <v>5</v>
@@ -2676,7 +2695,7 @@
     <row r="61" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
       <c r="B61" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="32">
         <v>0</v>
@@ -2688,7 +2707,7 @@
         <v>77</v>
       </c>
       <c r="F61" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" s="35">
         <v>5</v>
@@ -2697,111 +2716,139 @@
     <row r="62" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
       <c r="B62" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="32">
+        <v>0</v>
+      </c>
+      <c r="D62" s="32">
+        <v>0</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="34">
+        <v>3</v>
+      </c>
+      <c r="G62" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="32"/>
+      <c r="B63" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="32">
+        <v>0</v>
+      </c>
+      <c r="D63" s="32">
+        <v>0</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="34">
+        <v>4</v>
+      </c>
+      <c r="G63" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="32"/>
+      <c r="B64" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="32">
-        <v>0</v>
-      </c>
-      <c r="D62" s="32">
-        <v>0</v>
-      </c>
-      <c r="E62" s="33" t="s">
+      <c r="C64" s="32">
+        <v>0</v>
+      </c>
+      <c r="D64" s="32">
+        <v>0</v>
+      </c>
+      <c r="E64" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35">
+      <c r="F64" s="34"/>
+      <c r="G64" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32" t="s">
+    <row r="65" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="32">
-        <v>0</v>
-      </c>
-      <c r="D63" s="32">
-        <v>0</v>
-      </c>
-      <c r="E63" s="33" t="s">
+      <c r="C65" s="32">
+        <v>0</v>
+      </c>
+      <c r="D65" s="32">
+        <v>0</v>
+      </c>
+      <c r="E65" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="38">
+      <c r="F65" s="34"/>
+      <c r="G65" s="38">
         <v>604800</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="11"/>
-      <c r="B64" s="10" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="10">
-        <v>0</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="C67" s="10">
+        <v>0</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17">
+      <c r="F67" s="16"/>
+      <c r="G67" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="11"/>
-      <c r="B65" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="10">
-        <v>0</v>
-      </c>
-      <c r="D65" s="10">
-        <v>0</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="D68" s="22">
+        <v>8</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22" t="s">
+      <c r="F68" s="24"/>
+      <c r="G68" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="22">
-        <v>3</v>
-      </c>
-      <c r="D66" s="22">
-        <v>8</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="20"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B69" s="19"/>
@@ -2856,22 +2903,36 @@
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
-      <c r="G76" s="21"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="20"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
-      <c r="G77" s="21"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="20"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
       <c r="G78" s="21"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
       <c r="G79" s="21"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G82" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2883,10 +2944,12 @@
     <hyperlink ref="G12" r:id="rId5"/>
     <hyperlink ref="G11" r:id="rId6"/>
     <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G13" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sgserver\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="22680" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刘小兵:</t>
@@ -44,6 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,6 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刘小兵:</t>
@@ -70,6 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,6 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -111,6 +116,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 测试
@@ -131,6 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 审核
@@ -144,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -643,14 +650,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>激活码获取接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活激活码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>平台appid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -663,68 +662,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.9:8080/v1/server/verifyActivationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>eta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctivationcode</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>verifyactivationcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>eta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctivationcode</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>verifyactivationcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>platappid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -737,7 +674,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://api.laywoodgames.com/v1/server/getActivationCode</t>
+    <t>聊天的时间间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatinterval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天的内容长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatmaxlength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色回调lua脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createrolelua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>./script/game/steam_invite_code.lua</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -745,62 +706,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>聊天的时间间隔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatinterval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天的内容长度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chatmaxlength</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建角色回调lua脚本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>createrolelua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>./script/game/steam_invite_code.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上报邀请码接口</t>
-  </si>
-  <si>
-    <t>上报邀请码接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>invitationcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.9:8080/v1/server/getActivationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>invitationcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.9:8080/v1/server/invitationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.laywoodgames.com/v1/server/verifyActivationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.laywoodgames.com/v1/server/invitationCode</t>
+    <t>platapiurl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.9:8080/v1/server/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.laywoodgames.com/v1/server/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platapiurl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台api地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -858,16 +780,11 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -883,7 +800,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,6 +849,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -961,11 +884,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,22 +1006,40 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,11 +1415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1568,218 +1509,218 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="46">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="44">
+        <v>0</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="15">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="7">
+    </row>
+    <row r="6" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42" t="s">
-        <v>112</v>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="44">
+        <v>3</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="32">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="F13" s="34"/>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="32">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
-      <c r="B15" s="32" t="s">
-        <v>104</v>
+      <c r="B15" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="32">
         <v>0</v>
@@ -1788,169 +1729,177 @@
         <v>0</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="35">
-        <v>2</v>
+      <c r="G15" s="43">
+        <v>2592000</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
       <c r="B16" s="32" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C16" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="35">
-        <v>1</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
       <c r="B17" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1</v>
+      </c>
+      <c r="G20" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="29">
         <v>2</v>
       </c>
-      <c r="C17" s="32">
-        <v>0</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0</v>
-      </c>
-      <c r="E17" s="36" t="s">
+      <c r="G21" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="29">
         <v>3</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="32">
+      <c r="G22" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="29">
         <v>1</v>
       </c>
-      <c r="D18" s="32">
-        <v>0</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="44">
-        <v>2592000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0</v>
-      </c>
-      <c r="D20" s="32">
-        <v>0</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0</v>
-      </c>
-      <c r="D21" s="32">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="17">
-        <v>5</v>
+      <c r="G23" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C24" s="27">
         <v>0</v>
@@ -1959,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="29">
+        <v>2</v>
+      </c>
+      <c r="G24" s="30">
         <v>1</v>
-      </c>
-      <c r="G24" s="30">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
@@ -1980,103 +1929,101 @@
         <v>0</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" s="29">
+        <v>3</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="15">
         <v>2</v>
       </c>
-      <c r="G25" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="27">
-        <v>0</v>
-      </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="G27" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="15">
         <v>3</v>
       </c>
-      <c r="G26" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="29">
-        <v>1</v>
-      </c>
-      <c r="G27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="27">
-        <v>0</v>
-      </c>
-      <c r="D28" s="27">
-        <v>0</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="29">
-        <v>2</v>
-      </c>
-      <c r="G28" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="27">
-        <v>0</v>
-      </c>
-      <c r="D29" s="27">
-        <v>0</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="29">
-        <v>3</v>
-      </c>
-      <c r="G29" s="30">
-        <v>0</v>
+      <c r="G28" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="13" t="s">
-        <v>49</v>
+      <c r="B30" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C30" s="10">
         <v>0</v>
@@ -2085,19 +2032,17 @@
         <v>0</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="17">
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C31" s="10">
         <v>0</v>
@@ -2105,182 +2050,182 @@
       <c r="D31" s="10">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="15">
+      <c r="E31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="22">
+        <v>3</v>
+      </c>
+      <c r="D33" s="22">
+        <v>8</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1</v>
+      </c>
+      <c r="G33" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="24">
         <v>2</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="15">
+      <c r="G34" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="24">
         <v>3</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="17">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="22">
-        <v>0</v>
-      </c>
-      <c r="D36" s="22">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="24">
+      <c r="G35" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="17">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="17">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="17">
         <v>1</v>
       </c>
-      <c r="G36" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="22">
-        <v>3</v>
-      </c>
-      <c r="D37" s="22">
-        <v>8</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="24">
-        <v>1</v>
-      </c>
-      <c r="G37" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="22">
-        <v>0</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="24">
-        <v>2</v>
-      </c>
-      <c r="G38" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="22">
-        <v>0</v>
-      </c>
-      <c r="D39" s="22">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="24">
-        <v>3</v>
-      </c>
-      <c r="G39" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C40" s="10">
         <v>0</v>
@@ -2289,17 +2234,19 @@
         <v>0</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="G40" s="17">
-        <v>7200000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C41" s="10">
         <v>0</v>
@@ -2308,17 +2255,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="G41" s="17">
-        <v>2592000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C42" s="10">
         <v>0</v>
@@ -2327,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G42" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C43" s="10">
         <v>0</v>
@@ -2348,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G43" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C44" s="10">
         <v>0</v>
@@ -2369,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G44" s="17">
-        <v>0.5</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C45" s="10">
         <v>0</v>
@@ -2390,19 +2339,17 @@
         <v>0</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F45" s="15"/>
       <c r="G45" s="17">
-        <v>500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C46" s="10">
         <v>0</v>
@@ -2411,19 +2358,17 @@
         <v>0</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F46" s="15"/>
       <c r="G46" s="17">
-        <v>1000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C47" s="10">
         <v>0</v>
@@ -2432,19 +2377,17 @@
         <v>0</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>55</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F47" s="15"/>
       <c r="G47" s="17">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C48" s="10">
         <v>0</v>
@@ -2453,95 +2396,93 @@
         <v>0</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F48" s="15"/>
       <c r="G48" s="17">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="32">
+        <v>0</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+      <c r="D51" s="32">
+        <v>0</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="32">
+        <v>0</v>
+      </c>
+      <c r="D52" s="32">
+        <v>0</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="34"/>
+      <c r="G52" s="35">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32"/>
       <c r="B53" s="32" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C53" s="32">
         <v>0</v>
@@ -2550,17 +2491,17 @@
         <v>0</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="35">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
       <c r="B54" s="32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C54" s="32">
         <v>0</v>
@@ -2569,17 +2510,17 @@
         <v>0</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="35">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32"/>
       <c r="B55" s="32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C55" s="32">
         <v>0</v>
@@ -2588,17 +2529,17 @@
         <v>0</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="35">
-        <v>86400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="32"/>
-      <c r="B56" s="32" t="s">
-        <v>83</v>
+      <c r="B56" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="C56" s="32">
         <v>0</v>
@@ -2607,17 +2548,19 @@
         <v>0</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="F56" s="34">
+        <v>1</v>
+      </c>
       <c r="G56" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32"/>
-      <c r="B57" s="32" t="s">
-        <v>85</v>
+      <c r="B57" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="C57" s="32">
         <v>0</v>
@@ -2626,17 +2569,19 @@
         <v>0</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="F57" s="34">
+        <v>2</v>
+      </c>
       <c r="G57" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32"/>
-      <c r="B58" s="32" t="s">
-        <v>74</v>
+      <c r="B58" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="C58" s="32">
         <v>0</v>
@@ -2645,17 +2590,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="F58" s="34">
+        <v>3</v>
+      </c>
       <c r="G58" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
-      <c r="B59" s="32" t="s">
-        <v>76</v>
+      <c r="B59" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="C59" s="32">
         <v>0</v>
@@ -2664,17 +2611,19 @@
         <v>0</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="F59" s="34">
+        <v>4</v>
+      </c>
       <c r="G59" s="35">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="32"/>
       <c r="B60" s="37" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C60" s="32">
         <v>0</v>
@@ -2683,19 +2632,17 @@
         <v>0</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="34">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F60" s="34"/>
       <c r="G60" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
-      <c r="B61" s="37" t="s">
-        <v>79</v>
+      <c r="B61" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C61" s="32">
         <v>0</v>
@@ -2704,252 +2651,166 @@
         <v>0</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="34">
-        <v>2</v>
-      </c>
-      <c r="G61" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
-      <c r="B62" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="32">
-        <v>0</v>
-      </c>
-      <c r="D62" s="32">
-        <v>0</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="34">
+        <v>88</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="38">
+        <v>604800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="10">
+        <v>0</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17">
         <v>3</v>
       </c>
-      <c r="G62" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="32"/>
-      <c r="B63" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="32">
-        <v>0</v>
-      </c>
-      <c r="D63" s="32">
-        <v>0</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="34">
-        <v>4</v>
-      </c>
-      <c r="G63" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="32"/>
-      <c r="B64" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="32">
-        <v>0</v>
-      </c>
-      <c r="D64" s="32">
-        <v>0</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="32">
-        <v>0</v>
-      </c>
-      <c r="D65" s="32">
-        <v>0</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="38">
-        <v>604800</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="11"/>
-      <c r="B66" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="11"/>
+      <c r="B63" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="11"/>
-      <c r="B67" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="10">
-        <v>0</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="22">
-        <v>3</v>
-      </c>
-      <c r="D68" s="22">
+      <c r="D64" s="22">
         <v>8</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E64" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="F69" s="18"/>
       <c r="G69" s="20"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="F70" s="18"/>
       <c r="G70" s="20"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="F71" s="18"/>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="F72" s="18"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="F73" s="18"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="20"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="20"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="20"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="G79" s="21"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G82" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G9" r:id="rId3"/>
-    <hyperlink ref="G10" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G11" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G13" r:id="rId8"/>
-    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId11"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="25515" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="132">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1417,9 +1417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="A9:XFD9"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="25">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25515" yWindow="0" windowWidth="20085" windowHeight="8445"/>
+    <workbookView xWindow="31185" yWindow="0" windowWidth="20085" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="169">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -391,10 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>键值(也不要改这个字段)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>匹配对应的属性字段 - 单人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -690,39 +686,191 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>createrolelua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>./script/game/steam_invite_code.lua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://steamauth.laywoodgames.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platapiurl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.9:8080/v1/server/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platapiurl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台api地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.laywoodgames.com/v1/server/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clusterkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 public</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RouteCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatchCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 relation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>创建角色回调lua脚本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>createrolelua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>./script/game/steam_invite_code.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://steamauth.laywoodgames.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>platapiurl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.9:8080/v1/server/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.laywoodgames.com/v1/server/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>platapiurl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台api地址</t>
+    <t>GroupCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankClusterr@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 guild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuildCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群秘钥 dir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirCluster@KFrame,./</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +948,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,6 +1003,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -888,7 +1042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1195,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1415,11 +1581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1427,10 +1593,10 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="60.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.875" style="2" bestFit="1" customWidth="1"/>
@@ -1451,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1478,16 +1644,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -1509,521 +1675,527 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0</v>
+      </c>
+      <c r="D4" s="51">
+        <v>0</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="51">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="51">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="51">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="51">
+        <v>0</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="51">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="51">
+        <v>0</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="51">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="51">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="46">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="44">
-        <v>0</v>
-      </c>
-      <c r="D4" s="44">
-        <v>0</v>
-      </c>
-      <c r="E4" s="45" t="s">
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="46">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44" t="s">
+      <c r="F17" s="49"/>
+      <c r="G17" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="44">
-        <v>0</v>
-      </c>
-      <c r="D5" s="44">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45" t="s">
+    </row>
+    <row r="18" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1</v>
+      </c>
+      <c r="D18" s="44">
+        <v>0</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="44">
+        <v>3</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="32">
+        <v>0</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="32">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="44">
-        <v>0</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="F25" s="34"/>
+      <c r="G25" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="32">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="D26" s="32">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="F26" s="34"/>
+      <c r="G26" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0</v>
-      </c>
-      <c r="D11" s="32">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="32">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32">
-        <v>1</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="32">
-        <v>0</v>
-      </c>
-      <c r="D13" s="32">
-        <v>0</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="32">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0</v>
-      </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="43">
+      <c r="F27" s="34"/>
+      <c r="G27" s="43">
         <v>2592000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32" t="s">
+    <row r="28" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="32">
-        <v>0</v>
-      </c>
-      <c r="D16" s="32">
-        <v>0</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32" t="s">
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="32">
-        <v>0</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="27">
-        <v>0</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="29">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="27">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>0</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="29">
-        <v>2</v>
-      </c>
-      <c r="G21" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="27">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="29">
-        <v>3</v>
-      </c>
-      <c r="G22" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="27">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="29">
-        <v>1</v>
-      </c>
-      <c r="G23" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="27">
-        <v>0</v>
-      </c>
-      <c r="D24" s="27">
-        <v>0</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="29">
-        <v>2</v>
-      </c>
-      <c r="G24" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="27">
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
-        <v>0</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="29">
-        <v>3</v>
-      </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="15">
-        <v>2</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="15">
-        <v>3</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C30" s="10">
         <v>0</v>
@@ -2032,17 +2204,17 @@
         <v>0</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="17">
-        <v>300</v>
+      <c r="G30" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C31" s="10">
         <v>0</v>
@@ -2051,139 +2223,143 @@
         <v>0</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="17">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="22">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="29">
         <v>1</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="27">
+        <v>0</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="29">
+        <v>2</v>
+      </c>
+      <c r="G33" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="29">
+        <v>3</v>
+      </c>
+      <c r="G34" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="22">
+      <c r="G35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="29">
+        <v>2</v>
+      </c>
+      <c r="G36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="27">
+        <v>0</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="29">
         <v>3</v>
       </c>
-      <c r="D33" s="22">
-        <v>8</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="24">
-        <v>1</v>
-      </c>
-      <c r="G33" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="22">
-        <v>0</v>
-      </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="24">
-        <v>2</v>
-      </c>
-      <c r="G34" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="22">
-        <v>0</v>
-      </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="24">
-        <v>3</v>
-      </c>
-      <c r="G35" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="17">
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="17">
-        <v>2592000</v>
+      <c r="G37" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>33</v>
+      <c r="B38" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C38" s="10">
         <v>0</v>
@@ -2192,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="17">
+        <v>17</v>
+      </c>
+      <c r="F38" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C39" s="10">
         <v>0</v>
@@ -2212,20 +2388,20 @@
       <c r="D39" s="10">
         <v>0</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="15">
+        <v>2</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C40" s="10">
         <v>0</v>
@@ -2233,20 +2409,20 @@
       <c r="D40" s="10">
         <v>0</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0.5</v>
+      <c r="E40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="15">
+        <v>3</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C41" s="10">
         <v>0</v>
@@ -2255,19 +2431,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F41" s="15"/>
       <c r="G41" s="17">
-        <v>500</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C42" s="10">
         <v>0</v>
@@ -2276,19 +2450,17 @@
         <v>0</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F42" s="15"/>
       <c r="G42" s="17">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C43" s="10">
         <v>0</v>
@@ -2297,97 +2469,101 @@
         <v>0</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>55</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F43" s="15"/>
       <c r="G43" s="17">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="17">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="24">
+        <v>1</v>
+      </c>
+      <c r="G44" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="17">
+      <c r="D45" s="22">
+        <v>8</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="24">
+        <v>2</v>
+      </c>
+      <c r="G46" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="22">
+        <v>0</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="17">
-        <v>1</v>
+      <c r="G47" s="25">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C48" s="10">
         <v>0</v>
@@ -2396,253 +2572,259 @@
         <v>0</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="17">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="17">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="17">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="10">
+        <v>0</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="32">
-        <v>0</v>
-      </c>
-      <c r="D49" s="32">
-        <v>0</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="32">
-        <v>0</v>
-      </c>
-      <c r="D50" s="32">
-        <v>0</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="32">
-        <v>0</v>
-      </c>
-      <c r="D51" s="32">
-        <v>0</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="32">
-        <v>0</v>
-      </c>
-      <c r="D52" s="32">
-        <v>0</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="32">
-        <v>0</v>
-      </c>
-      <c r="D53" s="32">
-        <v>0</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="32">
-        <v>0</v>
-      </c>
-      <c r="D54" s="32">
-        <v>0</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="32">
-        <v>0</v>
-      </c>
-      <c r="D55" s="32">
-        <v>0</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="32">
-        <v>0</v>
-      </c>
-      <c r="D56" s="32">
-        <v>0</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="34">
-        <v>1</v>
-      </c>
-      <c r="G56" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="32"/>
-      <c r="B57" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="32">
-        <v>0</v>
-      </c>
-      <c r="D57" s="32">
-        <v>0</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="34">
-        <v>2</v>
-      </c>
-      <c r="G57" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="32"/>
-      <c r="B58" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="32">
-        <v>0</v>
-      </c>
-      <c r="D58" s="32">
-        <v>0</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="34">
-        <v>3</v>
-      </c>
-      <c r="G58" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="32"/>
-      <c r="B59" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="32">
-        <v>0</v>
-      </c>
-      <c r="D59" s="32">
-        <v>0</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="34">
-        <v>4</v>
-      </c>
-      <c r="G59" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="32"/>
-      <c r="B60" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="32">
-        <v>0</v>
-      </c>
-      <c r="D60" s="32">
-        <v>0</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
       <c r="B61" s="32" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C61" s="32">
         <v>0</v>
@@ -2651,166 +2833,414 @@
         <v>0</v>
       </c>
       <c r="E61" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="32">
+        <v>0</v>
+      </c>
+      <c r="D62" s="32">
+        <v>0</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="32">
+        <v>0</v>
+      </c>
+      <c r="D63" s="32">
+        <v>0</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="35">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="32">
+        <v>0</v>
+      </c>
+      <c r="D64" s="32">
+        <v>0</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="32">
+        <v>0</v>
+      </c>
+      <c r="D65" s="32">
+        <v>0</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="34"/>
+      <c r="G65" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="32">
+        <v>0</v>
+      </c>
+      <c r="D66" s="32">
+        <v>0</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="32">
+        <v>0</v>
+      </c>
+      <c r="D67" s="32">
+        <v>0</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="32"/>
+      <c r="B68" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="32">
+        <v>0</v>
+      </c>
+      <c r="D68" s="32">
+        <v>0</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="34">
+        <v>1</v>
+      </c>
+      <c r="G68" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="32"/>
+      <c r="B69" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="32">
+        <v>0</v>
+      </c>
+      <c r="D69" s="32">
+        <v>0</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="34">
+        <v>2</v>
+      </c>
+      <c r="G69" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="32"/>
+      <c r="B70" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="32">
+        <v>0</v>
+      </c>
+      <c r="D70" s="32">
+        <v>0</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="34">
+        <v>3</v>
+      </c>
+      <c r="G70" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="32"/>
+      <c r="B71" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="32">
+        <v>0</v>
+      </c>
+      <c r="D71" s="32">
+        <v>0</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="34">
+        <v>4</v>
+      </c>
+      <c r="G71" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="32"/>
+      <c r="B72" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="32">
+        <v>0</v>
+      </c>
+      <c r="D72" s="32">
+        <v>0</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="34"/>
+      <c r="G72" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" s="32"/>
+      <c r="B73" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="38">
+      <c r="C73" s="32">
+        <v>0</v>
+      </c>
+      <c r="D73" s="32">
+        <v>0</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="34"/>
+      <c r="G73" s="38">
         <v>604800</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
-      <c r="B62" s="10" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="11"/>
+      <c r="B74" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="10">
+        <v>0</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="10">
-        <v>0</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="F74" s="16"/>
+      <c r="G74" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="11"/>
+      <c r="B75" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17">
+      <c r="C75" s="10">
+        <v>0</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="10">
-        <v>0</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11" t="s">
+      <c r="D76" s="22">
+        <v>8</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22" t="s">
+      <c r="F76" s="24"/>
+      <c r="G76" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="22">
-        <v>3</v>
-      </c>
-      <c r="D64" s="22">
-        <v>8</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="20"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="20"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="20"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="20"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="20"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G76" s="21"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G77" s="21"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G78" s="21"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G89" s="21"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G90" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G9" r:id="rId2"/>
-    <hyperlink ref="G10" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId1"/>
+    <hyperlink ref="G21" r:id="rId2"/>
+    <hyperlink ref="G22" r:id="rId3"/>
+    <hyperlink ref="G18" r:id="rId4"/>
+    <hyperlink ref="G19" r:id="rId5"/>
+    <hyperlink ref="G5" r:id="rId6"/>
+    <hyperlink ref="G4" r:id="rId7"/>
+    <hyperlink ref="G7" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="G9" r:id="rId10"/>
+    <hyperlink ref="G8" r:id="rId11"/>
+    <hyperlink ref="G11" r:id="rId12"/>
+    <hyperlink ref="G10" r:id="rId13"/>
+    <hyperlink ref="G13" r:id="rId14"/>
+    <hyperlink ref="G12" r:id="rId15"/>
+    <hyperlink ref="G15" r:id="rId16"/>
+    <hyperlink ref="G14" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId7"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -686,14 +686,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>createrolelua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>./script/game/steam_invite_code.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://steamauth.laywoodgames.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -799,10 +791,6 @@
   </si>
   <si>
     <t>group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建角色回调lua脚本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1581,11 +1569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1653,7 +1641,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -1678,7 +1666,7 @@
     <row r="4" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="51">
         <v>0</v>
@@ -1687,40 +1675,40 @@
         <v>0</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="53" t="s">
         <v>131</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" s="51">
-        <v>0</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="51">
         <v>0</v>
@@ -1729,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="51">
         <v>0</v>
@@ -1750,40 +1738,40 @@
         <v>0</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="51">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="53" t="s">
         <v>143</v>
-      </c>
-      <c r="C8" s="51">
-        <v>0</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="51">
         <v>0</v>
@@ -1792,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="51">
         <v>0</v>
@@ -1813,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="51">
         <v>0</v>
@@ -1834,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" s="51">
         <v>0</v>
@@ -1855,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C13" s="51">
         <v>0</v>
@@ -1876,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C14" s="51">
         <v>0</v>
@@ -1897,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="51">
         <v>0</v>
@@ -1918,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
@@ -1967,7 +1955,7 @@
     <row r="18" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44"/>
       <c r="B18" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" s="44">
         <v>1</v>
@@ -1976,17 +1964,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F18" s="46"/>
       <c r="G18" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44"/>
       <c r="B19" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="44">
         <v>3</v>
@@ -1995,11 +1983,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2056,7 +2044,7 @@
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.15">
@@ -3114,24 +3102,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="22">
-        <v>3</v>
-      </c>
-      <c r="D76" s="22">
-        <v>8</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="25" t="s">
-        <v>123</v>
-      </c>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="20"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B77" s="19"/>
@@ -3193,8 +3169,7 @@
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="20"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B86" s="19"/>
@@ -3203,9 +3178,6 @@
       <c r="G86" s="21"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
       <c r="G87" s="21"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.15">
@@ -3213,9 +3185,6 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G89" s="21"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G90" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sgserver\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,6 +25,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>刘小兵</author>
+    <author>杨鹏博</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0">
@@ -146,12 +147,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="G76" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>杨鹏博:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0-6 表示周日-周六</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="170">
   <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -694,10 +719,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.1.9:8080/v1/server/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>platapiurl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -859,6 +880,26 @@
   </si>
   <si>
     <t>master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam周末活动结束时间(星期几)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam周末活动结束时间(小时)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamfreeweekendstophour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamfreeweekendstopday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apitest.laywoodgames.com/v1/server/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -933,6 +974,19 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1573,7 +1627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1641,7 +1695,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -1666,7 +1720,7 @@
     <row r="4" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="51">
         <v>0</v>
@@ -1675,61 +1729,61 @@
         <v>0</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="G4" s="53" t="s">
         <v>130</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="51">
-        <v>0</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="52" t="s">
+      <c r="G5" s="53" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" s="51">
-        <v>0</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="51">
         <v>0</v>
@@ -1738,82 +1792,82 @@
         <v>0</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>139</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="51">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="51">
-        <v>0</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="52" t="s">
+      <c r="G8" s="53" t="s">
         <v>142</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="51">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="53" t="s">
         <v>144</v>
-      </c>
-      <c r="C9" s="51">
-        <v>0</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="51">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" s="51">
-        <v>0</v>
-      </c>
-      <c r="D10" s="51">
-        <v>0</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="51">
         <v>0</v>
@@ -1822,40 +1876,40 @@
         <v>0</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>148</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="51">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="51">
-        <v>0</v>
-      </c>
-      <c r="D12" s="51">
-        <v>0</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>154</v>
-      </c>
       <c r="G12" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="51">
         <v>0</v>
@@ -1864,55 +1918,55 @@
         <v>0</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="51">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="51">
-        <v>0</v>
-      </c>
-      <c r="D14" s="51">
-        <v>0</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="52" t="s">
+      <c r="G14" s="53" t="s">
         <v>157</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="51">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="53" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" s="51">
-        <v>0</v>
-      </c>
-      <c r="D15" s="51">
-        <v>0</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.15">
@@ -1955,7 +2009,7 @@
     <row r="18" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44"/>
       <c r="B18" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="44">
         <v>1</v>
@@ -1964,17 +2018,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="46"/>
       <c r="G18" s="47" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44"/>
       <c r="B19" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="44">
         <v>3</v>
@@ -1987,7 +2041,7 @@
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3103,18 +3157,40 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="19">
+        <v>3</v>
+      </c>
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="F76" s="18"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
+      <c r="B77" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="19">
+        <v>3</v>
+      </c>
+      <c r="D77" s="19">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F77" s="18"/>
-      <c r="G77" s="20"/>
+      <c r="G77" s="20">
+        <v>16</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B78" s="19"/>

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26100" windowHeight="12795"/>
+    <workbookView windowWidth="26175" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="1">
+    <comment ref="G60" authorId="1">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>Description</t>
   </si>
@@ -231,6 +231,12 @@
     <t>selaysavetime</t>
   </si>
   <si>
+    <t>名字最大长度</t>
+  </si>
+  <si>
+    <t>playernamelength</t>
+  </si>
+  <si>
     <t>全局类名</t>
   </si>
   <si>
@@ -507,11 +513,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -521,12 +527,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -564,8 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,13 +588,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -601,38 +595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,17 +618,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,7 +663,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,8 +692,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,187 +751,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,9 +956,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,6 +970,60 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,67 +1043,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,148 +1056,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,49 +1235,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1295,19 +1289,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1331,7 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1751,12 +1745,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2013,67 +2007,65 @@
         <v>29</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" ht="15" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25">
-        <v>10</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:7">
@@ -2088,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="25">
         <v>10</v>
@@ -2100,19 +2092,19 @@
     <row r="17" s="5" customFormat="1" spans="1:7">
       <c r="A17" s="22"/>
       <c r="B17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="25">
         <v>10</v>
@@ -2121,7 +2113,7 @@
     <row r="18" s="5" customFormat="1" spans="1:7">
       <c r="A18" s="22"/>
       <c r="B18" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="22">
         <v>0</v>
@@ -2130,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="25">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:7">
@@ -2151,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="25">
         <v>1</v>
@@ -2163,61 +2155,61 @@
     <row r="20" s="5" customFormat="1" spans="1:7">
       <c r="A20" s="22"/>
       <c r="B20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="22">
-        <v>0</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>41</v>
-      </c>
       <c r="F20" s="24">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:7">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="24">
         <v>3</v>
       </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>46</v>
+      <c r="G21" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>45</v>
-      </c>
       <c r="F22" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>48</v>
@@ -2235,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>50</v>
@@ -2255,12 +2247,14 @@
       <c r="D24" s="17">
         <v>0</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="19">
+        <v>3</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="21">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2279,7 +2273,7 @@
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="21">
-        <v>300</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2298,28 +2292,26 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21">
         <v>120</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" spans="1:7">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="28">
-        <v>0</v>
-      </c>
-      <c r="D27" s="28">
-        <v>0</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="30">
-        <v>1</v>
-      </c>
-      <c r="G27" s="31">
-        <v>1</v>
       </c>
     </row>
     <row r="28" s="6" customFormat="1" spans="1:7">
@@ -2328,37 +2320,37 @@
         <v>59</v>
       </c>
       <c r="C28" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" s="30">
         <v>1</v>
       </c>
       <c r="G28" s="31">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" s="6" customFormat="1" spans="1:7">
       <c r="A29" s="28"/>
       <c r="B29" s="28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C29" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="31">
         <v>10</v>
@@ -2367,7 +2359,7 @@
     <row r="30" s="6" customFormat="1" spans="1:7">
       <c r="A30" s="28"/>
       <c r="B30" s="28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="28">
         <v>0</v>
@@ -2376,32 +2368,34 @@
         <v>0</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" s="6" customFormat="1" spans="1:7">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="17">
-        <v>0</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="21">
-        <v>7200000</v>
+      <c r="F31" s="30">
+        <v>3</v>
+      </c>
+      <c r="G31" s="31">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2420,7 +2414,7 @@
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="21">
-        <v>2592000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2437,32 +2431,30 @@
       <c r="E33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="F33" s="19"/>
       <c r="G33" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1" spans="1:7">
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>68</v>
       </c>
       <c r="G34" s="21">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1" spans="1:7">
@@ -2477,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>70</v>
       </c>
       <c r="G35" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1" spans="1:7">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>71</v>
@@ -2498,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>72</v>
       </c>
       <c r="G36" s="21">
-        <v>500</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2519,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="21">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2540,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="21">
-        <v>-2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2561,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>78</v>
       </c>
       <c r="G39" s="21">
-        <v>-500</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2582,11 +2574,13 @@
         <v>0</v>
       </c>
       <c r="E40" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="19"/>
       <c r="G40" s="21">
-        <v>3</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2624,7 +2618,7 @@
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2643,26 +2637,26 @@
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="21">
         <v>2</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:7">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13">
-        <v>100</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:7">
@@ -2681,7 +2675,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:7">
@@ -2700,7 +2694,7 @@
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="13">
-        <v>86400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:7">
@@ -2719,7 +2713,7 @@
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13">
-        <v>5</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:7">
@@ -2776,12 +2770,12 @@
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="13">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:7">
       <c r="A51" s="10"/>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="10">
@@ -2793,11 +2787,9 @@
       <c r="E51" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="12">
-        <v>1</v>
-      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="13">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:7">
@@ -2812,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F52" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13">
         <v>5</v>
@@ -2824,19 +2816,19 @@
     <row r="53" s="4" customFormat="1" spans="1:7">
       <c r="A53" s="10"/>
       <c r="B53" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="10">
-        <v>0</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="F53" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="13">
         <v>5</v>
@@ -2845,7 +2837,7 @@
     <row r="54" s="4" customFormat="1" spans="1:7">
       <c r="A54" s="10"/>
       <c r="B54" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="10">
         <v>0</v>
@@ -2854,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F54" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54" s="13">
         <v>5</v>
@@ -2866,7 +2858,7 @@
     <row r="55" s="4" customFormat="1" spans="1:7">
       <c r="A55" s="10"/>
       <c r="B55" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" s="10">
         <v>0</v>
@@ -2875,16 +2867,18 @@
         <v>0</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="F55" s="12">
+        <v>4</v>
+      </c>
       <c r="G55" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" s="4" customFormat="1" ht="15" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:7">
       <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="10">
@@ -2897,27 +2891,27 @@
         <v>109</v>
       </c>
       <c r="F56" s="12"/>
-      <c r="G56" s="33">
+      <c r="G56" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" ht="15" spans="1:7">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="33">
         <v>604800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="27"/>
-      <c r="B57" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="17">
-        <v>0</v>
-      </c>
-      <c r="D57" s="17">
-        <v>0</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="21">
-        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2936,25 +2930,26 @@
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="27"/>
+      <c r="B59" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="17">
+        <v>0</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="34"/>
+      <c r="G59" s="21">
         <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="35">
-        <v>3</v>
-      </c>
-      <c r="D59" s="35">
-        <v>0</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="37">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -2972,15 +2967,26 @@
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="35">
+        <v>3</v>
+      </c>
+      <c r="D61" s="35">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="37"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="35"/>
@@ -3028,7 +3034,8 @@
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
-      <c r="G68" s="41"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="35"/>
@@ -3036,7 +3043,10 @@
       <c r="D69" s="35"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="7:7">
+    <row r="70" spans="2:7">
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
       <c r="G70" s="41"/>
     </row>
     <row r="71" spans="7:7">
@@ -3044,6 +3054,9 @@
     </row>
     <row r="72" spans="7:7">
       <c r="G72" s="41"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
